--- a/Imonės veiklos analize/Pardavimu biudzetas/SalesBudget.xlsx
+++ b/Imonės veiklos analize/Pardavimu biudzetas/SalesBudget.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vult-my.sharepoint.com/personal/saulius_preidys_itpc_vu_lt/Documents/Documents/GitHub/Microsoft-AdventureWorks-Database-Analysis-Visualization-with-PowerBI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vult-my.sharepoint.com/personal/saulius_preidys_itpc_vu_lt/Documents/Documents/GitHub/Duomenu_analitika/Imonės veiklos analize/Pardavimu biudzetas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{9DB0F426-EAE3-4CAE-A364-B68B0189A02A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C199F70E-C6E7-423E-8F06-3A9ACBD114DE}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{9DB0F426-EAE3-4CAE-A364-B68B0189A02A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36DFAB70-3F01-4BCC-8F14-C6F0A2EE14D8}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5CABF058-C44E-4B4C-A322-6CA47C838A4D}"/>
   </bookViews>
@@ -422,7 +422,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -441,7 +441,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
-        <v>43831</v>
+        <v>41640</v>
       </c>
       <c r="B2" s="2">
         <v>800000</v>
@@ -449,7 +449,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
-        <v>43862</v>
+        <v>41671</v>
       </c>
       <c r="B3" s="2">
         <v>800000</v>
@@ -457,7 +457,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
-        <v>43891</v>
+        <v>41699</v>
       </c>
       <c r="B4" s="2">
         <v>1000000</v>
@@ -465,7 +465,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <v>43922</v>
+        <v>41730</v>
       </c>
       <c r="B5" s="2">
         <v>1000000</v>
@@ -473,7 +473,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
-        <v>43952</v>
+        <v>41760</v>
       </c>
       <c r="B6" s="2">
         <v>1100000</v>
@@ -481,7 +481,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
-        <v>43983</v>
+        <v>41791</v>
       </c>
       <c r="B7" s="2">
         <v>1100000</v>
@@ -489,7 +489,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
-        <v>44013</v>
+        <v>41821</v>
       </c>
       <c r="B8" s="2">
         <v>1500000</v>
@@ -497,7 +497,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
-        <v>44044</v>
+        <v>41852</v>
       </c>
       <c r="B9" s="2">
         <v>1500000</v>
@@ -505,7 +505,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
-        <v>44075</v>
+        <v>41883</v>
       </c>
       <c r="B10" s="2">
         <v>1500000</v>
@@ -513,7 +513,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
-        <v>44105</v>
+        <v>41913</v>
       </c>
       <c r="B11" s="2">
         <v>1500000</v>
@@ -521,7 +521,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
-        <v>44136</v>
+        <v>41944</v>
       </c>
       <c r="B12" s="2">
         <v>1500000</v>
@@ -529,7 +529,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
-        <v>44166</v>
+        <v>41974</v>
       </c>
       <c r="B13" s="2">
         <v>2000000</v>
@@ -537,7 +537,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
-        <v>44197</v>
+        <v>41275</v>
       </c>
       <c r="B14" s="2">
         <v>800000</v>
@@ -545,7 +545,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
-        <v>44228</v>
+        <v>41306</v>
       </c>
       <c r="B15" s="2">
         <v>800000</v>
@@ -553,7 +553,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
-        <v>44256</v>
+        <v>41334</v>
       </c>
       <c r="B16" s="2">
         <v>1000000</v>
@@ -561,7 +561,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
-        <v>44287</v>
+        <v>41365</v>
       </c>
       <c r="B17" s="2">
         <v>1000000</v>
@@ -569,7 +569,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
-        <v>44317</v>
+        <v>41395</v>
       </c>
       <c r="B18" s="2">
         <v>1100000</v>
@@ -577,7 +577,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
-        <v>44348</v>
+        <v>41426</v>
       </c>
       <c r="B19" s="2">
         <v>1100000</v>
